--- a/testData.xlsx
+++ b/testData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fikri^rabbani\Documents\LOS\Badan Usaha\atchbu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AAE74-5A42-4E34-88C4-153FE018CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB0B737-C6EE-4937-AC00-9BFF62D2C831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="119">
   <si>
     <t>Nama_Debitur</t>
   </si>
@@ -390,20 +390,16 @@
     <t>Perempuan</t>
   </si>
   <si>
-    <t>091837</t>
-  </si>
-  <si>
-    <t>realizationForm</t>
-  </si>
-  <si>
     <t>100255</t>
+  </si>
+  <si>
+    <t>repaymentForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,11 +534,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,17 +828,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="12" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="24.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -909,7 +905,7 @@
         <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
@@ -933,7 +929,7 @@
       <formula1>"UAT,E2E"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{522E0E79-AC07-422F-B8D2-DC41E42871EC}">
-      <formula1>"approvalForm,realizationForm,validationApprovalFile,validationRealizationFile"</formula1>
+      <formula1>"approvalForm,repaymentForm,realizationForm,validationApprovalFile,validationRealizationFile"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,42 +947,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="99.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="2.42578125" collapsed="true"/>
-    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="111.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="2.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="5" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="99.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="2.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="111.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="2.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
@@ -1489,6 +1485,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:A2"/>
@@ -1500,15 +1505,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,13 +1522,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="116.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="27.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="18.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="116.5703125" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="116.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="116.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
